--- a/src/main/webapp/doc/SMS_会议管理系统数据库表_v1.0.xlsx
+++ b/src/main/webapp/doc/SMS_会议管理系统数据库表_v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924" tabRatio="757" activeTab="6"/>
+    <workbookView windowWidth="22943" windowHeight="9924" tabRatio="757" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259">
   <si>
     <t>SMS 数据库历史更新跟踪表</t>
   </si>
@@ -157,250 +157,283 @@
     <t>4</t>
   </si>
   <si>
+    <t>职员编号</t>
+  </si>
+  <si>
+    <t>employee_id</t>
+  </si>
+  <si>
+    <t>外键</t>
+  </si>
+  <si>
+    <t>sm_employee</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>修改人名</t>
+  </si>
+  <si>
+    <t>account_updated_user</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>account_updated_time</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>2017-01-10 18:00:00</t>
+  </si>
+  <si>
+    <t>24小时制</t>
+  </si>
+  <si>
+    <t>SM_Employee</t>
+  </si>
+  <si>
+    <t>职员信息</t>
+  </si>
+  <si>
+    <t>职员姓名</t>
+  </si>
+  <si>
+    <t>employee_name</t>
+  </si>
+  <si>
+    <t>职员昵称</t>
+  </si>
+  <si>
+    <t>employee_nickname</t>
+  </si>
+  <si>
+    <t>职员性别</t>
+  </si>
+  <si>
+    <t>employee_gender</t>
+  </si>
+  <si>
+    <t>职位编号</t>
+  </si>
+  <si>
+    <t>position_id</t>
+  </si>
+  <si>
+    <t>SM_Position</t>
+  </si>
+  <si>
+    <t>部门编号</t>
+  </si>
+  <si>
+    <t>department_id</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>SM_Department</t>
+  </si>
+  <si>
+    <t>职员状态</t>
+  </si>
+  <si>
+    <t>employee_status</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>0: 未激活  1：已激活  2：离职</t>
+  </si>
+  <si>
+    <t>所在公司</t>
+  </si>
+  <si>
+    <t>employee_company</t>
+  </si>
+  <si>
+    <t>职员照片</t>
+  </si>
+  <si>
+    <t>employee_image</t>
+  </si>
+  <si>
+    <t>MediumBlob</t>
+  </si>
+  <si>
+    <t>入职日期</t>
+  </si>
+  <si>
+    <t>employee_entrytime</t>
+  </si>
+  <si>
     <t>创建人名</t>
   </si>
   <si>
-    <t>created_user</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>employee_created_user</t>
   </si>
   <si>
     <t>创建时间</t>
   </si>
   <si>
-    <t>created_time</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>2017-01-10 18:00:00</t>
-  </si>
-  <si>
-    <t>24小时制</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>修改人名</t>
-  </si>
-  <si>
-    <t>updated_user</t>
-  </si>
-  <si>
-    <t>T</t>
+    <t>employee_created_time</t>
+  </si>
+  <si>
+    <t>employee_updated_user</t>
+  </si>
+  <si>
+    <t>employee_updated_time</t>
+  </si>
+  <si>
+    <t>SM_Employee_ContactInfo</t>
+  </si>
+  <si>
+    <t>职员联系方式</t>
+  </si>
+  <si>
+    <t>对应SM_Employee表的id</t>
+  </si>
+  <si>
+    <t>职员座机</t>
+  </si>
+  <si>
+    <t>employee_landline</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>职员手机</t>
+  </si>
+  <si>
+    <t>employee_phone</t>
+  </si>
+  <si>
+    <t>职员邮箱</t>
+  </si>
+  <si>
+    <t>employee_email</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>SM_Employee_Address</t>
+  </si>
+  <si>
+    <t>职员地址</t>
+  </si>
+  <si>
+    <t>职员现住址</t>
+  </si>
+  <si>
+    <t>employee_address</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>职员籍贯</t>
+  </si>
+  <si>
+    <t>employee_nativePlace</t>
+  </si>
+  <si>
+    <t>菜单表</t>
+  </si>
+  <si>
+    <t>SM_Menu</t>
+  </si>
+  <si>
+    <t>菜单编号</t>
+  </si>
+  <si>
+    <t>menu_id</t>
+  </si>
+  <si>
+    <t>菜单名称</t>
+  </si>
+  <si>
+    <t>menu_name</t>
+  </si>
+  <si>
+    <t>父节点</t>
+  </si>
+  <si>
+    <t>menu_parentId</t>
+  </si>
+  <si>
+    <t>菜单编号父节点</t>
+  </si>
+  <si>
+    <t>排序编号</t>
+  </si>
+  <si>
+    <t>menu_orderId</t>
+  </si>
+  <si>
+    <t>同级菜单排序节点</t>
+  </si>
+  <si>
+    <t>菜单URL</t>
+  </si>
+  <si>
+    <t>menu_url</t>
+  </si>
+  <si>
+    <t>菜单的URL路径</t>
+  </si>
+  <si>
+    <t>menu_created_user</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>修改时间</t>
-  </si>
-  <si>
-    <t>updated_time</t>
-  </si>
-  <si>
-    <t>SM_Employee</t>
-  </si>
-  <si>
-    <t>职员信息</t>
-  </si>
-  <si>
-    <t>职员编号</t>
-  </si>
-  <si>
-    <t>employee_id</t>
-  </si>
-  <si>
-    <t>职员姓名</t>
-  </si>
-  <si>
-    <t>employee_name</t>
-  </si>
-  <si>
-    <t>职员昵称</t>
-  </si>
-  <si>
-    <t>employee_nickname</t>
-  </si>
-  <si>
-    <t>职员性别</t>
-  </si>
-  <si>
-    <t>employee_gender</t>
-  </si>
-  <si>
-    <t>职位编号</t>
-  </si>
-  <si>
-    <t>position_id</t>
-  </si>
-  <si>
-    <t>SM_Position</t>
-  </si>
-  <si>
-    <t>部门编号</t>
-  </si>
-  <si>
-    <t>department_id</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>SM_Department</t>
-  </si>
-  <si>
-    <t>职员状态</t>
-  </si>
-  <si>
-    <t>employee_status</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>0: 未激活  1：已激活  2：离职</t>
-  </si>
-  <si>
-    <t>所在公司</t>
-  </si>
-  <si>
-    <t>employee_company</t>
-  </si>
-  <si>
-    <t>职员照片</t>
-  </si>
-  <si>
-    <t>employee_image</t>
-  </si>
-  <si>
-    <t>MediumBlob</t>
-  </si>
-  <si>
-    <t>入职日期</t>
-  </si>
-  <si>
-    <t>employee_entrytime</t>
-  </si>
-  <si>
-    <t>SM_Employee_ContactInfo</t>
-  </si>
-  <si>
-    <t>职员联系方式</t>
-  </si>
-  <si>
-    <t>对应SM_Employee表的id</t>
-  </si>
-  <si>
-    <t>职员座机</t>
-  </si>
-  <si>
-    <t>employee_landline</t>
-  </si>
-  <si>
-    <t>职员手机</t>
-  </si>
-  <si>
-    <t>employee_phone</t>
-  </si>
-  <si>
-    <t>职员邮箱</t>
-  </si>
-  <si>
-    <t>employee_email</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>SM_Employee_Address</t>
-  </si>
-  <si>
-    <t>职员地址</t>
-  </si>
-  <si>
-    <t>职员现住址</t>
-  </si>
-  <si>
-    <t>employee_address</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>职员籍贯</t>
-  </si>
-  <si>
-    <t>employee_nativePlace</t>
-  </si>
-  <si>
-    <t>菜单表</t>
-  </si>
-  <si>
-    <t>SM_Menu</t>
-  </si>
-  <si>
-    <t>菜单编号</t>
-  </si>
-  <si>
-    <t>menu_id</t>
-  </si>
-  <si>
-    <t>菜单名称</t>
-  </si>
-  <si>
-    <t>menu_name</t>
-  </si>
-  <si>
-    <t>父节点</t>
-  </si>
-  <si>
-    <t>menu_parentId</t>
-  </si>
-  <si>
-    <t>菜单编号父节点</t>
-  </si>
-  <si>
-    <t>排序编号</t>
-  </si>
-  <si>
-    <t>menu_orderId</t>
-  </si>
-  <si>
-    <t>同级菜单排序节点</t>
-  </si>
-  <si>
-    <t>菜单URL</t>
-  </si>
-  <si>
-    <t>menu_url</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>菜单的URL路径</t>
+    <t>menu_created_time</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
+    <t>menu_updated_user</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>角色授权表</t>
-  </si>
-  <si>
-    <t>SM_Role_grant</t>
-  </si>
-  <si>
-    <t>position主键id</t>
-  </si>
-  <si>
-    <t>position表</t>
+    <t>menu_updated_time</t>
+  </si>
+  <si>
+    <t>角色组授权表</t>
+  </si>
+  <si>
+    <t>SM_RoleGroup_grant</t>
+  </si>
+  <si>
+    <t>角色组编号</t>
+  </si>
+  <si>
+    <t>rg_rolegroup_id</t>
+  </si>
+  <si>
+    <t>角色组主键id</t>
+  </si>
+  <si>
+    <t>rolegroup表</t>
+  </si>
+  <si>
+    <t>rg_menu_id</t>
   </si>
   <si>
     <t>menu表主键id</t>
@@ -409,30 +442,27 @@
     <t>menu表</t>
   </si>
   <si>
-    <t>角色组授权表</t>
-  </si>
-  <si>
-    <t>SM_RoleGroup_grant</t>
-  </si>
-  <si>
-    <t>角色组编号</t>
+    <t>rg_created_user</t>
+  </si>
+  <si>
+    <t>rg_created_time</t>
+  </si>
+  <si>
+    <t>rg_updated_user</t>
+  </si>
+  <si>
+    <t>rg_updated_time</t>
+  </si>
+  <si>
+    <t>角色组</t>
+  </si>
+  <si>
+    <t>SM_RoleGroup</t>
   </si>
   <si>
     <t>rolegroup_id</t>
   </si>
   <si>
-    <t>角色组主键id</t>
-  </si>
-  <si>
-    <t>rolegroup表</t>
-  </si>
-  <si>
-    <t>角色组</t>
-  </si>
-  <si>
-    <t>SM_RoleGroup</t>
-  </si>
-  <si>
     <t>角色组名称</t>
   </si>
   <si>
@@ -443,6 +473,18 @@
   </si>
   <si>
     <t>rolegroupt_described</t>
+  </si>
+  <si>
+    <t>rolegroupt_created_user</t>
+  </si>
+  <si>
+    <t>rolegroupt_created_time</t>
+  </si>
+  <si>
+    <t>rolegroupt_updated_user</t>
+  </si>
+  <si>
+    <t>rolegroupt_updated_time</t>
   </si>
   <si>
     <t>职位</t>
@@ -517,31 +559,54 @@
     <t>职位名称</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>osition_name</t>
-    </r>
+    <t>position_name</t>
+  </si>
+  <si>
+    <t>position_created_user</t>
+  </si>
+  <si>
+    <t>position_created_time</t>
   </si>
   <si>
     <t xml:space="preserve">2017-01-10 18:00:00 </t>
   </si>
   <si>
+    <t>position_updated_user</t>
+  </si>
+  <si>
+    <t>position_updated_time</t>
+  </si>
+  <si>
+    <t>角色授权表</t>
+  </si>
+  <si>
+    <t>SM_Position_grant</t>
+  </si>
+  <si>
+    <t>pg_position_id</t>
+  </si>
+  <si>
+    <t>position主键id</t>
+  </si>
+  <si>
+    <t>position表</t>
+  </si>
+  <si>
+    <t>pg_menu_id</t>
+  </si>
+  <si>
+    <t>pg_created_user</t>
+  </si>
+  <si>
+    <t>pg_created_time</t>
+  </si>
+  <si>
+    <t>pg_updated_user</t>
+  </si>
+  <si>
+    <t>pg_updated_time</t>
+  </si>
+  <si>
     <t>部门</t>
   </si>
   <si>
@@ -563,34 +628,72 @@
     <t>department_pid</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>de</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>partment</t>
-    </r>
-  </si>
-  <si>
-    <t>自身连接</t>
-  </si>
-  <si>
     <t>department_orderId</t>
   </si>
   <si>
+    <t>部门电话</t>
+  </si>
+  <si>
+    <t>department_phone</t>
+  </si>
+  <si>
+    <t>部门邮箱</t>
+  </si>
+  <si>
+    <t>department_email</t>
+  </si>
+  <si>
+    <t>部门描述</t>
+  </si>
+  <si>
+    <t>department_detail</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>部门领导</t>
+  </si>
+  <si>
+    <t>department_head</t>
+  </si>
+  <si>
+    <t>department_created_user</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>department_created_time</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>department_updated_user</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>department_updated_time</t>
+  </si>
+  <si>
+    <t>SM_Permission</t>
+  </si>
+  <si>
+    <t>功能编号</t>
+  </si>
+  <si>
+    <t>permission_id</t>
+  </si>
+  <si>
+    <t>功能名称</t>
+  </si>
+  <si>
+    <t>permission_name</t>
+  </si>
+  <si>
     <t>Log_Logon</t>
   </si>
   <si>
@@ -600,34 +703,34 @@
     <t>日志编号</t>
   </si>
   <si>
-    <t>logon_id</t>
+    <t>log_logon_id</t>
   </si>
   <si>
     <t>操作类型</t>
   </si>
   <si>
-    <t>operator_type</t>
+    <t>log_logon_operator_type</t>
   </si>
   <si>
     <t>0: 登录  1：登出</t>
   </si>
   <si>
-    <t>操作账户</t>
-  </si>
-  <si>
-    <t>operator_account</t>
+    <t>操作员工</t>
+  </si>
+  <si>
+    <t>log_logon_operator_eid</t>
   </si>
   <si>
     <t>操作时间</t>
   </si>
   <si>
-    <t>operator_time</t>
+    <t>log_logon_operator_time</t>
   </si>
   <si>
     <t>登录IP</t>
   </si>
   <si>
-    <t>logon_ip</t>
+    <t>log_logon_ip</t>
   </si>
   <si>
     <t>Log_Account</t>
@@ -636,7 +739,16 @@
     <t>账户日志</t>
   </si>
   <si>
-    <t>log_id</t>
+    <t>log_account_id</t>
+  </si>
+  <si>
+    <t>log_account_operator_type</t>
+  </si>
+  <si>
+    <t>log_account_operator_eid</t>
+  </si>
+  <si>
+    <t>log_account_operator_time</t>
   </si>
   <si>
     <t>Log_Employee</t>
@@ -645,34 +757,106 @@
     <t>职员日志</t>
   </si>
   <si>
+    <t>log_employee_id</t>
+  </si>
+  <si>
+    <t>log_employee_operator_type</t>
+  </si>
+  <si>
+    <t>log_employee_operator_eid</t>
+  </si>
+  <si>
+    <t>log_employee_operator_time</t>
+  </si>
+  <si>
     <t>Log_Department</t>
   </si>
   <si>
     <t>部门日志</t>
   </si>
   <si>
+    <t>log_department_id</t>
+  </si>
+  <si>
+    <t>log_department_operator_type</t>
+  </si>
+  <si>
+    <t>log_department_operator_eid</t>
+  </si>
+  <si>
+    <t>log_department_operator_time</t>
+  </si>
+  <si>
     <t>Log_Position</t>
   </si>
   <si>
     <t>职位日志</t>
   </si>
   <si>
+    <t>log_position_id</t>
+  </si>
+  <si>
+    <t>log_position_operator_type</t>
+  </si>
+  <si>
+    <t>log_position_operator_eid</t>
+  </si>
+  <si>
+    <t>log_position_operator_time</t>
+  </si>
+  <si>
     <t>Log_SysParam</t>
   </si>
   <si>
     <t>系统参数日志</t>
   </si>
   <si>
+    <t>log_sysparam_id</t>
+  </si>
+  <si>
+    <t>log_sysparam_operator_type</t>
+  </si>
+  <si>
+    <t>log_sysparam_operator_eid</t>
+  </si>
+  <si>
+    <t>log_sysparam_operator_time</t>
+  </si>
+  <si>
     <t>Log_Rolegroup</t>
   </si>
   <si>
     <t>小组日志</t>
   </si>
   <si>
+    <t>log_rolegroup_id</t>
+  </si>
+  <si>
+    <t>log_rolegroup_operator_type</t>
+  </si>
+  <si>
+    <t>log_rolegroup_operator_eid</t>
+  </si>
+  <si>
+    <t>log_rolegroup_operator_time</t>
+  </si>
+  <si>
     <t>Log_Menu</t>
   </si>
   <si>
     <t>菜单日志</t>
+  </si>
+  <si>
+    <t>log_menu_id</t>
+  </si>
+  <si>
+    <t>log_menu_operator_type</t>
+  </si>
+  <si>
+    <t>log_menu_operator_eid</t>
+  </si>
+  <si>
+    <t>log_menu_operator_time</t>
   </si>
 </sst>
 </file>
@@ -681,10 +865,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]dd/mmm/yy;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-409]dd/mmm/yy;@"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -780,7 +964,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -788,7 +980,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,16 +1008,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,31 +1039,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,17 +1061,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -889,13 +1080,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -946,7 +1130,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,7 +1190,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,7 +1232,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,85 +1250,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,37 +1262,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,6 +1275,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1237,6 +1421,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1286,15 +1479,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1303,10 +1487,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1315,16 +1499,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1333,106 +1517,106 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1444,10 +1628,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
@@ -1457,7 +1641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1565,18 +1749,6 @@
     </xf>
     <xf numFmtId="176" fontId="7" fillId="5" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2028,271 +2200,271 @@
   </cols>
   <sheetData>
     <row r="2" spans="6:12">
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
     </row>
     <row r="4" spans="5:13">
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50" t="s">
+      <c r="K4" s="46"/>
+      <c r="L4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="46" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="5:13">
-      <c r="E5" s="51">
+      <c r="E5" s="47">
         <v>1</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="48">
         <v>43413</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51" t="s">
+      <c r="I5" s="47"/>
+      <c r="J5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="6" spans="5:13">
-      <c r="E6" s="51">
+      <c r="E6" s="47">
         <v>2</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
     </row>
     <row r="7" spans="5:13">
-      <c r="E7" s="51">
+      <c r="E7" s="47">
         <v>3</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
     </row>
     <row r="8" spans="5:13">
-      <c r="E8" s="51">
+      <c r="E8" s="47">
         <v>4</v>
       </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
     </row>
     <row r="9" spans="5:13">
-      <c r="E9" s="51">
+      <c r="E9" s="47">
         <v>5</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
     </row>
     <row r="10" spans="5:13">
-      <c r="E10" s="51">
+      <c r="E10" s="47">
         <v>6</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
     </row>
     <row r="11" spans="5:13">
-      <c r="E11" s="51">
+      <c r="E11" s="47">
         <v>7</v>
       </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
     </row>
     <row r="12" spans="5:13">
-      <c r="E12" s="51">
+      <c r="E12" s="47">
         <v>8</v>
       </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
     </row>
     <row r="13" spans="5:13">
-      <c r="E13" s="51">
+      <c r="E13" s="47">
         <v>9</v>
       </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
     </row>
     <row r="14" spans="5:13">
-      <c r="E14" s="51">
+      <c r="E14" s="47">
         <v>10</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
     </row>
     <row r="15" spans="5:13">
-      <c r="E15" s="51">
+      <c r="E15" s="47">
         <v>11</v>
       </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
     </row>
     <row r="16" spans="5:13">
-      <c r="E16" s="51">
+      <c r="E16" s="47">
         <v>12</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
     </row>
     <row r="17" spans="5:13">
-      <c r="E17" s="51">
+      <c r="E17" s="47">
         <v>13</v>
       </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
     </row>
     <row r="18" spans="5:13">
-      <c r="E18" s="51">
+      <c r="E18" s="47">
         <v>14</v>
       </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
     </row>
     <row r="19" spans="5:13">
-      <c r="E19" s="51">
+      <c r="E19" s="47">
         <v>15</v>
       </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
     </row>
     <row r="20" spans="5:13">
-      <c r="E20" s="51">
+      <c r="E20" s="47">
         <v>16</v>
       </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
     </row>
     <row r="21" spans="5:13">
-      <c r="E21" s="51">
+      <c r="E21" s="47">
         <v>17</v>
       </c>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2308,14 +2480,14 @@
   <sheetPr/>
   <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="22.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="28.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="38.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="12.8888888888889" customWidth="1"/>
     <col min="5" max="5" width="11.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="10.6666666666667" customWidth="1"/>
@@ -2330,10 +2502,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
@@ -2396,10 +2568,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>30</v>
@@ -2428,16 +2600,16 @@
         <v>36</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>32</v>
@@ -2446,7 +2618,7 @@
       <c r="H4" s="17"/>
       <c r="I4" s="18"/>
       <c r="J4" s="28" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="K4" s="21"/>
       <c r="L4" s="17"/>
@@ -2458,10 +2630,10 @@
         <v>40</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>30</v>
@@ -2486,17 +2658,15 @@
         <v>43</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>31</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E6" s="18"/>
       <c r="F6" s="17" t="s">
         <v>32</v>
       </c>
@@ -2511,22 +2681,22 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="21"/>
@@ -2606,10 +2776,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
@@ -2672,10 +2842,10 @@
         <v>27</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>30</v>
@@ -2704,16 +2874,16 @@
         <v>36</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>32</v>
@@ -2732,10 +2902,10 @@
         <v>40</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>165</v>
+        <v>221</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>30</v>
@@ -2760,17 +2930,15 @@
         <v>43</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>31</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E17" s="18"/>
       <c r="F17" s="17" t="s">
         <v>32</v>
       </c>
@@ -2868,10 +3036,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -2934,10 +3102,10 @@
         <v>27</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>30</v>
@@ -2966,16 +3134,16 @@
         <v>36</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>32</v>
@@ -2994,10 +3162,10 @@
         <v>40</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>30</v>
@@ -3022,17 +3190,15 @@
         <v>43</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>31</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E28" s="18"/>
       <c r="F28" s="17" t="s">
         <v>32</v>
       </c>
@@ -3130,10 +3296,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -3196,10 +3362,10 @@
         <v>27</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>30</v>
@@ -3228,16 +3394,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>162</v>
+        <v>232</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F37" s="17" t="s">
         <v>32</v>
@@ -3256,10 +3422,10 @@
         <v>40</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>30</v>
@@ -3284,17 +3450,15 @@
         <v>43</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>31</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E39" s="18"/>
       <c r="F39" s="17" t="s">
         <v>32</v>
       </c>
@@ -3392,10 +3556,10 @@
         <v>12</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
@@ -3458,10 +3622,10 @@
         <v>27</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>30</v>
@@ -3490,16 +3654,16 @@
         <v>36</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>32</v>
@@ -3518,10 +3682,10 @@
         <v>40</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>165</v>
+        <v>239</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>30</v>
@@ -3546,17 +3710,15 @@
         <v>43</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>31</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E50" s="18"/>
       <c r="F50" s="17" t="s">
         <v>32</v>
       </c>
@@ -3654,10 +3816,10 @@
         <v>12</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>180</v>
+        <v>242</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="5"/>
@@ -3720,10 +3882,10 @@
         <v>27</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>30</v>
@@ -3752,16 +3914,16 @@
         <v>36</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>162</v>
+        <v>244</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F59" s="17" t="s">
         <v>32</v>
@@ -3780,10 +3942,10 @@
         <v>40</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>30</v>
@@ -3808,17 +3970,15 @@
         <v>43</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E61" s="18" t="s">
-        <v>31</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E61" s="18"/>
       <c r="F61" s="17" t="s">
         <v>32</v>
       </c>
@@ -3932,10 +4092,10 @@
         <v>12</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="5"/>
@@ -3998,10 +4158,10 @@
         <v>27</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>172</v>
+        <v>249</v>
       </c>
       <c r="D70" s="17" t="s">
         <v>30</v>
@@ -4030,16 +4190,16 @@
         <v>36</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>162</v>
+        <v>250</v>
       </c>
       <c r="D71" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F71" s="17" t="s">
         <v>32</v>
@@ -4058,10 +4218,10 @@
         <v>40</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>165</v>
+        <v>251</v>
       </c>
       <c r="D72" s="17" t="s">
         <v>30</v>
@@ -4086,17 +4246,15 @@
         <v>43</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>167</v>
+        <v>252</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>31</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E73" s="18"/>
       <c r="F73" s="17" t="s">
         <v>32</v>
       </c>
@@ -4210,10 +4368,10 @@
         <v>12</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>183</v>
+        <v>253</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>184</v>
+        <v>254</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="5"/>
@@ -4276,10 +4434,10 @@
         <v>27</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>172</v>
+        <v>255</v>
       </c>
       <c r="D82" s="17" t="s">
         <v>30</v>
@@ -4308,16 +4466,16 @@
         <v>36</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>162</v>
+        <v>256</v>
       </c>
       <c r="D83" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F83" s="17" t="s">
         <v>32</v>
@@ -4336,10 +4494,10 @@
         <v>40</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="D84" s="17" t="s">
         <v>30</v>
@@ -4364,17 +4522,15 @@
         <v>43</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>167</v>
+        <v>258</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E85" s="18" t="s">
-        <v>31</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E85" s="18"/>
       <c r="F85" s="17" t="s">
         <v>32</v>
       </c>
@@ -4462,7 +4618,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
@@ -4477,17 +4633,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.12962962962963" style="22" customWidth="1"/>
     <col min="2" max="2" width="23.6296296296296" style="22" customWidth="1"/>
-    <col min="3" max="3" width="20.3796296296296" style="22" customWidth="1"/>
+    <col min="3" max="3" width="24.4444444444444" style="22" customWidth="1"/>
     <col min="4" max="4" width="13.8888888888889" style="22" customWidth="1"/>
     <col min="5" max="5" width="7.75" style="22" customWidth="1"/>
     <col min="6" max="6" width="7.62962962962963" style="22" customWidth="1"/>
@@ -4606,7 +4762,7 @@
       <c r="N3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="44"/>
+      <c r="O3" s="40"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="14" t="s">
@@ -4635,8 +4791,8 @@
       <c r="L4" s="17"/>
       <c r="M4" s="21"/>
       <c r="N4" s="17"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="14" t="s">
@@ -4689,95 +4845,85 @@
       <c r="H6" s="21"/>
       <c r="I6" s="18"/>
       <c r="J6" s="28"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="K6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" ht="15.75" customHeight="1" spans="1:14">
       <c r="A7" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>50</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="F7" s="17" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="21"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>51</v>
-      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:14">
+    <row r="8" spans="1:14">
       <c r="A8" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="16" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>31</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E8" s="18"/>
       <c r="F8" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="21"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="21"/>
+      <c r="J8" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>49</v>
-      </c>
+      <c r="A9" s="14"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="17" t="s">
-        <v>55</v>
-      </c>
+      <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="21"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>51</v>
-      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
@@ -4785,7 +4931,7 @@
     <row r="10" spans="1:14">
       <c r="A10" s="14"/>
       <c r="B10" s="20"/>
-      <c r="C10" s="16"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="18"/>
       <c r="F10" s="17"/>
@@ -4798,57 +4944,41 @@
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="14"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
+    <row r="11" spans="2:11">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4862,14 +4992,14 @@
   <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.12962962962963" style="22" customWidth="1"/>
     <col min="2" max="2" width="31.5555555555556" style="22" customWidth="1"/>
-    <col min="3" max="3" width="23.3333333333333" style="22" customWidth="1"/>
+    <col min="3" max="3" width="28.1111111111111" style="22" customWidth="1"/>
     <col min="4" max="4" width="14.3333333333333" style="22" customWidth="1"/>
     <col min="5" max="5" width="9.11111111111111" style="22" customWidth="1"/>
     <col min="6" max="6" width="8.55555555555556" style="22" customWidth="1"/>
@@ -4892,10 +5022,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
@@ -4954,14 +5084,14 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="42">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>30</v>
@@ -4988,17 +5118,17 @@
       <c r="N3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="44"/>
+      <c r="O3" s="40"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="42">
+      <c r="A4" s="38">
         <v>2</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>30</v>
@@ -5017,18 +5147,18 @@
       <c r="L4" s="17"/>
       <c r="M4" s="21"/>
       <c r="N4" s="17"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="42">
+      <c r="A5" s="38">
         <v>3</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>30</v>
@@ -5049,14 +5179,14 @@
       <c r="N5" s="17"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="42">
+      <c r="A6" s="38">
         <v>4</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>30</v>
@@ -5077,14 +5207,14 @@
       <c r="N6" s="17"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="42">
+      <c r="A7" s="38">
         <v>5</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>30</v>
@@ -5101,26 +5231,26 @@
       <c r="J7" s="29"/>
       <c r="K7" s="30"/>
       <c r="L7" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M7" s="21"/>
       <c r="N7" s="17"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="42">
+      <c r="A8" s="38">
         <v>6</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>32</v>
@@ -5131,26 +5261,26 @@
       <c r="J8" s="29"/>
       <c r="K8" s="30"/>
       <c r="L8" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M8" s="21"/>
       <c r="N8" s="17"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="42">
+      <c r="A9" s="38">
         <v>7</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>32</v>
@@ -5159,7 +5289,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="18"/>
       <c r="J9" s="28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K9" s="21"/>
       <c r="L9" s="17"/>
@@ -5167,14 +5297,14 @@
       <c r="N9" s="17"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="42">
+      <c r="A10" s="38">
         <v>8</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>30</v>
@@ -5195,21 +5325,21 @@
       <c r="N10" s="17"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="42">
+      <c r="A11" s="38">
         <v>9</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="17"/>
@@ -5221,17 +5351,17 @@
       <c r="N11" s="17"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="42">
+      <c r="A12" s="38">
         <v>10</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="17" t="s">
@@ -5247,14 +5377,14 @@
       <c r="N12" s="17"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="42">
+      <c r="A13" s="38">
         <v>11</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>30</v>
@@ -5275,17 +5405,17 @@
       <c r="N13" s="21"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="42">
+      <c r="A14" s="38">
         <v>12</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="17" t="s">
@@ -5295,24 +5425,24 @@
       <c r="H14" s="21"/>
       <c r="I14" s="18"/>
       <c r="J14" s="28" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="42">
+      <c r="A15" s="38">
         <v>13</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>30</v>
@@ -5321,7 +5451,7 @@
         <v>39</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="21"/>
@@ -5333,30 +5463,30 @@
       <c r="N15" s="21"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="42">
+      <c r="A16" s="38">
         <v>14</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="21"/>
       <c r="I16" s="18"/>
       <c r="J16" s="28" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
@@ -5415,10 +5545,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -5481,10 +5611,10 @@
         <v>27</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>30</v>
@@ -5503,7 +5633,7 @@
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K25" s="21"/>
       <c r="L25" s="17"/>
@@ -5515,19 +5645,19 @@
         <v>36</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G26" s="19" t="s">
         <v>33</v>
@@ -5545,19 +5675,19 @@
         <v>40</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>33</v>
@@ -5575,19 +5705,19 @@
         <v>43</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>33</v>
@@ -5605,10 +5735,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -5622,7 +5752,7 @@
       <c r="M32" s="25"/>
       <c r="N32" s="27"/>
     </row>
-    <row r="33" s="41" customFormat="1" spans="1:14">
+    <row r="33" s="37" customFormat="1" spans="1:14">
       <c r="A33" s="8" t="s">
         <v>1</v>
       </c>
@@ -5671,10 +5801,10 @@
         <v>27</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>30</v>
@@ -5693,7 +5823,7 @@
       </c>
       <c r="I34" s="18"/>
       <c r="J34" s="28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K34" s="21"/>
       <c r="L34" s="17"/>
@@ -5705,16 +5835,16 @@
         <v>36</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F35" s="17" t="s">
         <v>32</v>
@@ -5733,19 +5863,19 @@
         <v>40</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G36" s="19"/>
       <c r="H36" s="17"/>
@@ -5791,25 +5921,25 @@
       <c r="N38" s="21"/>
     </row>
     <row r="39" spans="11:11">
-      <c r="K39" s="43"/>
+      <c r="K39" s="39"/>
     </row>
     <row r="40" spans="8:11">
-      <c r="H40" s="43"/>
-      <c r="K40" s="43"/>
+      <c r="H40" s="39"/>
+      <c r="K40" s="39"/>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-    </row>
-    <row r="56" s="41" customFormat="1" spans="2:11">
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+    </row>
+    <row r="56" s="37" customFormat="1" spans="2:11">
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
@@ -5821,7 +5951,7 @@
       <c r="J56" s="22"/>
       <c r="K56" s="22"/>
     </row>
-    <row r="57" s="41" customFormat="1" spans="2:11">
+    <row r="57" s="37" customFormat="1" spans="2:11">
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
@@ -5833,7 +5963,7 @@
       <c r="J57" s="22"/>
       <c r="K57" s="22"/>
     </row>
-    <row r="70" s="41" customFormat="1" spans="2:11">
+    <row r="70" s="37" customFormat="1" spans="2:11">
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
@@ -5846,40 +5976,40 @@
       <c r="K70" s="22"/>
     </row>
     <row r="72" spans="2:11">
-      <c r="B72" s="41"/>
-      <c r="C72" s="41"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="41"/>
-      <c r="J72" s="41"/>
-      <c r="K72" s="41"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
     </row>
     <row r="73" spans="2:11">
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="41"/>
-      <c r="K73" s="41"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
     </row>
     <row r="86" spans="2:11">
-      <c r="B86" s="41"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="41"/>
-      <c r="F86" s="41"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="41"/>
-      <c r="I86" s="41"/>
-      <c r="J86" s="41"/>
-      <c r="K86" s="41"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5891,18 +6021,18 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="15.8796296296296" customWidth="1"/>
     <col min="3" max="3" width="31.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="12.5555555555556" style="40" customWidth="1"/>
-    <col min="6" max="6" width="9" style="40"/>
+    <col min="4" max="4" width="12.5555555555556" style="36" customWidth="1"/>
+    <col min="6" max="6" width="9" style="36"/>
     <col min="7" max="7" width="6.62962962962963" customWidth="1"/>
     <col min="8" max="8" width="6.12962962962963" customWidth="1"/>
     <col min="9" max="9" width="6.62962962962963" customWidth="1"/>
@@ -5916,10 +6046,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D1" s="32"/>
     </row>
@@ -5970,10 +6100,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>30</v>
@@ -6006,16 +6136,16 @@
         <v>36</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>32</v>
@@ -6034,10 +6164,10 @@
         <v>40</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>30</v>
@@ -6053,7 +6183,7 @@
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
@@ -6064,16 +6194,16 @@
         <v>43</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>32</v>
@@ -6083,7 +6213,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
@@ -6091,19 +6221,19 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>32</v>
@@ -6113,7 +6243,7 @@
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
@@ -6124,10 +6254,10 @@
         <v>52</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>30</v>
@@ -6149,16 +6279,16 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="14" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="17" t="s">
@@ -6168,10 +6298,10 @@
       <c r="H9" s="21"/>
       <c r="I9" s="18"/>
       <c r="J9" s="28" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
@@ -6179,13 +6309,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>30</v>
@@ -6194,7 +6324,7 @@
         <v>31</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="21"/>
@@ -6207,277 +6337,271 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="14" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="21"/>
       <c r="I11" s="18"/>
       <c r="J11" s="28" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
     </row>
-    <row r="14" ht="15.6" spans="1:4">
-      <c r="A14" s="1" t="s">
+    <row r="16" ht="15.6" spans="1:4">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="32"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="14">
-        <v>1</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
+      <c r="B16" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="32"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="14">
+        <v>1</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="17" t="s">
+      <c r="B19" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E19" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16" t="s">
+      <c r="F19" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-    </row>
-    <row r="21" ht="15.6" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="32"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="14" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>49</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>141</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16" t="s">
-        <v>5</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="14">
-        <v>1</v>
+      <c r="A23" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>31</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E23" s="18"/>
       <c r="F23" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="L24" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
+        <v>51</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6491,13 +6615,13 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="13.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="21.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="28.7777777777778" customWidth="1"/>
     <col min="4" max="4" width="13.2222222222222" customWidth="1"/>
     <col min="10" max="10" width="22.1111111111111" customWidth="1"/>
     <col min="11" max="11" width="20.2222222222222" customWidth="1"/>
@@ -6509,10 +6633,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="D1" s="32"/>
       <c r="E1" s="5"/>
@@ -6575,10 +6699,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>30</v>
@@ -6611,10 +6735,10 @@
         <v>36</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>30</v>
@@ -6639,16 +6763,16 @@
         <v>40</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>32</v>
@@ -6667,10 +6791,10 @@
         <v>43</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>30</v>
@@ -6692,16 +6816,16 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="17" t="s">
@@ -6711,10 +6835,10 @@
       <c r="H7" s="21"/>
       <c r="I7" s="18"/>
       <c r="J7" s="28" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
@@ -6725,10 +6849,10 @@
         <v>52</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>30</v>
@@ -6737,7 +6861,7 @@
         <v>31</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="21"/>
@@ -6750,29 +6874,29 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="14" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="21"/>
       <c r="I9" s="18"/>
       <c r="J9" s="28" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
@@ -6787,16 +6911,16 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="23.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
     <col min="10" max="10" width="21.8888888888889" customWidth="1"/>
     <col min="11" max="11" width="12.2222222222222" customWidth="1"/>
@@ -6808,10 +6932,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
@@ -6874,24 +6998,24 @@
         <v>27</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="17" t="s">
         <v>33</v>
       </c>
       <c r="I3" s="18"/>
@@ -6899,7 +7023,7 @@
         <v>34</v>
       </c>
       <c r="K3" s="21"/>
-      <c r="L3" s="36"/>
+      <c r="L3" s="17"/>
       <c r="M3" s="21"/>
       <c r="N3" s="17"/>
     </row>
@@ -6907,19 +7031,19 @@
       <c r="A4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" s="37" t="s">
+      <c r="B4" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="17" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="19"/>
@@ -6935,20 +7059,20 @@
       <c r="A5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="36" t="s">
+      <c r="B5" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="36" t="s">
-        <v>55</v>
+      <c r="F5" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="17"/>
@@ -6956,7 +7080,7 @@
       <c r="J5" s="29"/>
       <c r="K5" s="30"/>
       <c r="L5" s="17" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M5" s="21"/>
       <c r="N5" s="17"/>
@@ -6966,10 +7090,10 @@
         <v>43</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>30</v>
@@ -6991,16 +7115,16 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="17" t="s">
@@ -7010,10 +7134,10 @@
       <c r="H7" s="21"/>
       <c r="I7" s="18"/>
       <c r="J7" s="28" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
@@ -7024,10 +7148,10 @@
         <v>52</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>30</v>
@@ -7036,7 +7160,7 @@
         <v>31</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="21"/>
@@ -7049,29 +7173,29 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="14" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="21"/>
       <c r="I9" s="18"/>
       <c r="J9" s="28" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
@@ -7109,53 +7233,243 @@
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="14"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="14"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="14"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
+    <row r="16" ht="15.6" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="32"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="14">
+        <v>1</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -7166,10 +7480,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -7188,10 +7502,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D1" s="32"/>
       <c r="E1" s="5"/>
@@ -7254,10 +7568,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>30</v>
@@ -7290,10 +7604,10 @@
         <v>36</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>30</v>
@@ -7304,7 +7618,9 @@
       <c r="F4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="H4" s="17"/>
       <c r="I4" s="18"/>
       <c r="J4" s="28"/>
@@ -7318,21 +7634,23 @@
         <v>40</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="H5" s="17"/>
       <c r="I5" s="18"/>
       <c r="J5" s="28"/>
@@ -7346,10 +7664,10 @@
         <v>43</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>30</v>
@@ -7365,29 +7683,25 @@
       <c r="I6" s="18"/>
       <c r="J6" s="28"/>
       <c r="K6" s="21"/>
-      <c r="L6" s="17" t="s">
-        <v>154</v>
-      </c>
+      <c r="L6" s="17"/>
       <c r="M6" s="21"/>
-      <c r="N6" s="17" t="s">
-        <v>155</v>
-      </c>
+      <c r="N6" s="17"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>32</v>
@@ -7406,16 +7720,16 @@
         <v>52</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>45</v>
+        <v>183</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>184</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>32</v>
@@ -7431,52 +7745,50 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="14" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>48</v>
+        <v>185</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>186</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>100</v>
+      </c>
       <c r="F9" s="17" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="21"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>51</v>
-      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>54</v>
+        <v>187</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>188</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="21"/>
@@ -7489,33 +7801,147 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="14" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>58</v>
+        <v>190</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>191</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="F11" s="17" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="21"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>51</v>
-      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="21"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -7526,14 +7952,280 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="29.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="12.8888888888889" customWidth="1"/>
+    <col min="10" max="10" width="25.4444444444444" customWidth="1"/>
+    <col min="11" max="11" width="20.7777777777778" customWidth="1"/>
+    <col min="12" max="12" width="14.8888888888889" customWidth="1"/>
+    <col min="14" max="14" width="10.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.4" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="27"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="17"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="17"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/src/main/webapp/doc/SMS_会议管理系统数据库表_v1.0.xlsx
+++ b/src/main/webapp/doc/SMS_会议管理系统数据库表_v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924" tabRatio="757" activeTab="2"/>
+    <workbookView windowWidth="22943" windowHeight="9924" tabRatio="757" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="5" r:id="rId1"/>
@@ -472,19 +472,19 @@
     <t>角色组描述</t>
   </si>
   <si>
-    <t>rolegroupt_described</t>
-  </si>
-  <si>
-    <t>rolegroupt_created_user</t>
-  </si>
-  <si>
-    <t>rolegroupt_created_time</t>
-  </si>
-  <si>
-    <t>rolegroupt_updated_user</t>
-  </si>
-  <si>
-    <t>rolegroupt_updated_time</t>
+    <t>rolegroup_described</t>
+  </si>
+  <si>
+    <t>rolegroup_created_user</t>
+  </si>
+  <si>
+    <t>rolegroup_created_time</t>
+  </si>
+  <si>
+    <t>rolegroup_updated_user</t>
+  </si>
+  <si>
+    <t>rolegroup_updated_time</t>
   </si>
   <si>
     <t>职位</t>
@@ -864,13 +864,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-409]dd/mmm/yy;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -927,13 +927,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -946,28 +939,6 @@
       <color theme="3" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -986,22 +957,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1016,7 +981,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1024,7 +1003,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1039,23 +1018,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1079,7 +1043,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1130,72 +1123,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1208,37 +1135,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1250,31 +1153,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,13 +1177,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,21 +1375,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1421,25 +1399,31 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1465,17 +1449,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1487,10 +1480,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1499,16 +1492,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1517,121 +1510,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
@@ -1641,7 +1634,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1747,9 +1740,6 @@
     <xf numFmtId="176" fontId="6" fillId="5" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1765,16 +1755,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2200,271 +2190,271 @@
   </cols>
   <sheetData>
     <row r="2" spans="6:12">
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
     </row>
     <row r="4" spans="5:13">
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46" t="s">
+      <c r="K4" s="45"/>
+      <c r="L4" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="45" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="5:13">
-      <c r="E5" s="47">
+      <c r="E5" s="46">
         <v>1</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="47">
         <v>43413</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47" t="s">
+      <c r="I5" s="46"/>
+      <c r="J5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
     </row>
     <row r="6" spans="5:13">
-      <c r="E6" s="47">
+      <c r="E6" s="46">
         <v>2</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
     </row>
     <row r="7" spans="5:13">
-      <c r="E7" s="47">
+      <c r="E7" s="46">
         <v>3</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
     </row>
     <row r="8" spans="5:13">
-      <c r="E8" s="47">
+      <c r="E8" s="46">
         <v>4</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
     </row>
     <row r="9" spans="5:13">
-      <c r="E9" s="47">
+      <c r="E9" s="46">
         <v>5</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
     </row>
     <row r="10" spans="5:13">
-      <c r="E10" s="47">
+      <c r="E10" s="46">
         <v>6</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
     </row>
     <row r="11" spans="5:13">
-      <c r="E11" s="47">
+      <c r="E11" s="46">
         <v>7</v>
       </c>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
     </row>
     <row r="12" spans="5:13">
-      <c r="E12" s="47">
+      <c r="E12" s="46">
         <v>8</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
     </row>
     <row r="13" spans="5:13">
-      <c r="E13" s="47">
+      <c r="E13" s="46">
         <v>9</v>
       </c>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
     </row>
     <row r="14" spans="5:13">
-      <c r="E14" s="47">
+      <c r="E14" s="46">
         <v>10</v>
       </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
     </row>
     <row r="15" spans="5:13">
-      <c r="E15" s="47">
+      <c r="E15" s="46">
         <v>11</v>
       </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
     </row>
     <row r="16" spans="5:13">
-      <c r="E16" s="47">
+      <c r="E16" s="46">
         <v>12</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
     </row>
     <row r="17" spans="5:13">
-      <c r="E17" s="47">
+      <c r="E17" s="46">
         <v>13</v>
       </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
     </row>
     <row r="18" spans="5:13">
-      <c r="E18" s="47">
+      <c r="E18" s="46">
         <v>14</v>
       </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
     </row>
     <row r="19" spans="5:13">
-      <c r="E19" s="47">
+      <c r="E19" s="46">
         <v>15</v>
       </c>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
     </row>
     <row r="20" spans="5:13">
-      <c r="E20" s="47">
+      <c r="E20" s="46">
         <v>16</v>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
     </row>
     <row r="21" spans="5:13">
-      <c r="E21" s="47">
+      <c r="E21" s="46">
         <v>17</v>
       </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4635,7 +4625,7 @@
   <sheetPr/>
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -4762,7 +4752,7 @@
       <c r="N3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="40"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="14" t="s">
@@ -4791,8 +4781,8 @@
       <c r="L4" s="17"/>
       <c r="M4" s="21"/>
       <c r="N4" s="17"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="14" t="s">
@@ -4945,40 +4935,40 @@
       <c r="N10" s="21"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -5084,7 +5074,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="38">
+      <c r="A3" s="37">
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -5118,10 +5108,10 @@
       <c r="N3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="40"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="38">
+      <c r="A4" s="37">
         <v>2</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -5147,11 +5137,11 @@
       <c r="L4" s="17"/>
       <c r="M4" s="21"/>
       <c r="N4" s="17"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="38">
+      <c r="A5" s="37">
         <v>3</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -5179,7 +5169,7 @@
       <c r="N5" s="17"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="38">
+      <c r="A6" s="37">
         <v>4</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -5207,7 +5197,7 @@
       <c r="N6" s="17"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="38">
+      <c r="A7" s="37">
         <v>5</v>
       </c>
       <c r="B7" s="20" t="s">
@@ -5237,7 +5227,7 @@
       <c r="N7" s="17"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="38">
+      <c r="A8" s="37">
         <v>6</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -5267,7 +5257,7 @@
       <c r="N8" s="17"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="38">
+      <c r="A9" s="37">
         <v>7</v>
       </c>
       <c r="B9" s="20" t="s">
@@ -5297,7 +5287,7 @@
       <c r="N9" s="17"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="38">
+      <c r="A10" s="37">
         <v>8</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -5325,7 +5315,7 @@
       <c r="N10" s="17"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="38">
+      <c r="A11" s="37">
         <v>9</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -5351,7 +5341,7 @@
       <c r="N11" s="17"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="38">
+      <c r="A12" s="37">
         <v>10</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -5377,7 +5367,7 @@
       <c r="N12" s="17"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="38">
+      <c r="A13" s="37">
         <v>11</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -5405,7 +5395,7 @@
       <c r="N13" s="21"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="38">
+      <c r="A14" s="37">
         <v>12</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -5435,7 +5425,7 @@
       <c r="N14" s="21"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="38">
+      <c r="A15" s="37">
         <v>13</v>
       </c>
       <c r="B15" s="20" t="s">
@@ -5463,7 +5453,7 @@
       <c r="N15" s="21"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="38">
+      <c r="A16" s="37">
         <v>14</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -5752,7 +5742,7 @@
       <c r="M32" s="25"/>
       <c r="N32" s="27"/>
     </row>
-    <row r="33" s="37" customFormat="1" spans="1:14">
+    <row r="33" s="36" customFormat="1" spans="1:14">
       <c r="A33" s="8" t="s">
         <v>1</v>
       </c>
@@ -5921,25 +5911,25 @@
       <c r="N38" s="21"/>
     </row>
     <row r="39" spans="11:11">
-      <c r="K39" s="39"/>
+      <c r="K39" s="38"/>
     </row>
     <row r="40" spans="8:11">
-      <c r="H40" s="39"/>
-      <c r="K40" s="39"/>
+      <c r="H40" s="38"/>
+      <c r="K40" s="38"/>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-    </row>
-    <row r="56" s="37" customFormat="1" spans="2:11">
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+    </row>
+    <row r="56" s="36" customFormat="1" spans="2:11">
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
@@ -5951,7 +5941,7 @@
       <c r="J56" s="22"/>
       <c r="K56" s="22"/>
     </row>
-    <row r="57" s="37" customFormat="1" spans="2:11">
+    <row r="57" s="36" customFormat="1" spans="2:11">
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
@@ -5963,7 +5953,7 @@
       <c r="J57" s="22"/>
       <c r="K57" s="22"/>
     </row>
-    <row r="70" s="37" customFormat="1" spans="2:11">
+    <row r="70" s="36" customFormat="1" spans="2:11">
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
@@ -5976,40 +5966,40 @@
       <c r="K70" s="22"/>
     </row>
     <row r="72" spans="2:11">
-      <c r="B72" s="37"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
     </row>
     <row r="73" spans="2:11">
-      <c r="B73" s="37"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
     </row>
     <row r="86" spans="2:11">
-      <c r="B86" s="37"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="37"/>
-      <c r="K86" s="37"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6031,8 +6021,8 @@
   <cols>
     <col min="2" max="2" width="15.8796296296296" customWidth="1"/>
     <col min="3" max="3" width="31.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="12.5555555555556" style="36" customWidth="1"/>
-    <col min="6" max="6" width="9" style="36"/>
+    <col min="4" max="4" width="12.5555555555556" style="35" customWidth="1"/>
+    <col min="6" max="6" width="9" style="35"/>
     <col min="7" max="7" width="6.62962962962963" customWidth="1"/>
     <col min="8" max="8" width="6.12962962962963" customWidth="1"/>
     <col min="9" max="9" width="6.62962962962963" customWidth="1"/>
@@ -6614,8 +6604,8 @@
   <sheetPr/>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -7722,7 +7712,7 @@
       <c r="B8" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="16" t="s">
         <v>184</v>
       </c>
       <c r="D8" s="17" t="s">
@@ -7750,7 +7740,7 @@
       <c r="B9" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="16" t="s">
         <v>186</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -7778,7 +7768,7 @@
       <c r="B10" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="16" t="s">
         <v>188</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -7806,7 +7796,7 @@
       <c r="B11" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="16" t="s">
         <v>191</v>
       </c>
       <c r="D11" s="17" t="s">

--- a/src/main/webapp/doc/SMS_会议管理系统数据库表_v1.0.xlsx
+++ b/src/main/webapp/doc/SMS_会议管理系统数据库表_v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924" tabRatio="757" activeTab="5"/>
+    <workbookView windowWidth="22943" windowHeight="9515" tabRatio="757" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257">
   <si>
     <t>SMS 数据库历史更新跟踪表</t>
   </si>
@@ -157,241 +157,235 @@
     <t>4</t>
   </si>
   <si>
+    <t>修改人名</t>
+  </si>
+  <si>
+    <t>account_updated_user</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>account_updated_time</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>2017-01-10 18:00:00</t>
+  </si>
+  <si>
+    <t>24小时制</t>
+  </si>
+  <si>
+    <t>SM_Employee</t>
+  </si>
+  <si>
+    <t>职员信息</t>
+  </si>
+  <si>
     <t>职员编号</t>
   </si>
   <si>
     <t>employee_id</t>
   </si>
   <si>
-    <t>外键</t>
-  </si>
-  <si>
-    <t>sm_employee</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>修改人名</t>
-  </si>
-  <si>
-    <t>account_updated_user</t>
-  </si>
-  <si>
-    <t>T</t>
+    <t>职员姓名</t>
+  </si>
+  <si>
+    <t>employee_name</t>
+  </si>
+  <si>
+    <t>职员昵称</t>
+  </si>
+  <si>
+    <t>employee_nickname</t>
+  </si>
+  <si>
+    <t>职员性别</t>
+  </si>
+  <si>
+    <t>employee_gender</t>
+  </si>
+  <si>
+    <t>职位编号</t>
+  </si>
+  <si>
+    <t>position_id</t>
+  </si>
+  <si>
+    <t>SM_Position</t>
+  </si>
+  <si>
+    <t>部门编号</t>
+  </si>
+  <si>
+    <t>department_id</t>
+  </si>
+  <si>
+    <t>SM_Department</t>
+  </si>
+  <si>
+    <t>职员状态</t>
+  </si>
+  <si>
+    <t>employee_status</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>0: 未激活  1：已激活  2：离职</t>
+  </si>
+  <si>
+    <t>所在公司</t>
+  </si>
+  <si>
+    <t>employee_company</t>
+  </si>
+  <si>
+    <t>职员照片</t>
+  </si>
+  <si>
+    <t>employee_image</t>
+  </si>
+  <si>
+    <t>MediumBlob</t>
+  </si>
+  <si>
+    <t>入职日期</t>
+  </si>
+  <si>
+    <t>employee_entrytime</t>
+  </si>
+  <si>
+    <t>创建人名</t>
+  </si>
+  <si>
+    <t>employee_created_user</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>employee_created_time</t>
+  </si>
+  <si>
+    <t>employee_updated_user</t>
+  </si>
+  <si>
+    <t>employee_updated_time</t>
+  </si>
+  <si>
+    <t>SM_Employee_ContactInfo</t>
+  </si>
+  <si>
+    <t>职员联系方式</t>
+  </si>
+  <si>
+    <t>对应SM_Employee表的id</t>
+  </si>
+  <si>
+    <t>职员座机</t>
+  </si>
+  <si>
+    <t>employee_landline</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>职员手机</t>
+  </si>
+  <si>
+    <t>employee_phone</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>职员邮箱</t>
+  </si>
+  <si>
+    <t>employee_email</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>SM_Employee_Address</t>
+  </si>
+  <si>
+    <t>职员地址</t>
+  </si>
+  <si>
+    <t>职员现住址</t>
+  </si>
+  <si>
+    <t>employee_address</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>职员籍贯</t>
+  </si>
+  <si>
+    <t>employee_nativePlace</t>
+  </si>
+  <si>
+    <t>菜单表</t>
+  </si>
+  <si>
+    <t>SM_Menu</t>
+  </si>
+  <si>
+    <t>菜单编号</t>
+  </si>
+  <si>
+    <t>menu_id</t>
+  </si>
+  <si>
+    <t>菜单名称</t>
+  </si>
+  <si>
+    <t>menu_name</t>
+  </si>
+  <si>
+    <t>父节点</t>
+  </si>
+  <si>
+    <t>menu_parentId</t>
+  </si>
+  <si>
+    <t>菜单编号父节点</t>
+  </si>
+  <si>
+    <t>排序编号</t>
+  </si>
+  <si>
+    <t>menu_orderId</t>
+  </si>
+  <si>
+    <t>同级菜单排序节点</t>
+  </si>
+  <si>
+    <t>菜单URL</t>
+  </si>
+  <si>
+    <t>menu_url</t>
+  </si>
+  <si>
+    <t>菜单的URL路径</t>
   </si>
   <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>修改时间</t>
-  </si>
-  <si>
-    <t>account_updated_time</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>2017-01-10 18:00:00</t>
-  </si>
-  <si>
-    <t>24小时制</t>
-  </si>
-  <si>
-    <t>SM_Employee</t>
-  </si>
-  <si>
-    <t>职员信息</t>
-  </si>
-  <si>
-    <t>职员姓名</t>
-  </si>
-  <si>
-    <t>employee_name</t>
-  </si>
-  <si>
-    <t>职员昵称</t>
-  </si>
-  <si>
-    <t>employee_nickname</t>
-  </si>
-  <si>
-    <t>职员性别</t>
-  </si>
-  <si>
-    <t>employee_gender</t>
-  </si>
-  <si>
-    <t>职位编号</t>
-  </si>
-  <si>
-    <t>position_id</t>
-  </si>
-  <si>
-    <t>SM_Position</t>
-  </si>
-  <si>
-    <t>部门编号</t>
-  </si>
-  <si>
-    <t>department_id</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>SM_Department</t>
-  </si>
-  <si>
-    <t>职员状态</t>
-  </si>
-  <si>
-    <t>employee_status</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>0: 未激活  1：已激活  2：离职</t>
-  </si>
-  <si>
-    <t>所在公司</t>
-  </si>
-  <si>
-    <t>employee_company</t>
-  </si>
-  <si>
-    <t>职员照片</t>
-  </si>
-  <si>
-    <t>employee_image</t>
-  </si>
-  <si>
-    <t>MediumBlob</t>
-  </si>
-  <si>
-    <t>入职日期</t>
-  </si>
-  <si>
-    <t>employee_entrytime</t>
-  </si>
-  <si>
-    <t>创建人名</t>
-  </si>
-  <si>
-    <t>employee_created_user</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>employee_created_time</t>
-  </si>
-  <si>
-    <t>employee_updated_user</t>
-  </si>
-  <si>
-    <t>employee_updated_time</t>
-  </si>
-  <si>
-    <t>SM_Employee_ContactInfo</t>
-  </si>
-  <si>
-    <t>职员联系方式</t>
-  </si>
-  <si>
-    <t>对应SM_Employee表的id</t>
-  </si>
-  <si>
-    <t>职员座机</t>
-  </si>
-  <si>
-    <t>employee_landline</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>职员手机</t>
-  </si>
-  <si>
-    <t>employee_phone</t>
-  </si>
-  <si>
-    <t>职员邮箱</t>
-  </si>
-  <si>
-    <t>employee_email</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>SM_Employee_Address</t>
-  </si>
-  <si>
-    <t>职员地址</t>
-  </si>
-  <si>
-    <t>职员现住址</t>
-  </si>
-  <si>
-    <t>employee_address</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>职员籍贯</t>
-  </si>
-  <si>
-    <t>employee_nativePlace</t>
-  </si>
-  <si>
-    <t>菜单表</t>
-  </si>
-  <si>
-    <t>SM_Menu</t>
-  </si>
-  <si>
-    <t>菜单编号</t>
-  </si>
-  <si>
-    <t>menu_id</t>
-  </si>
-  <si>
-    <t>菜单名称</t>
-  </si>
-  <si>
-    <t>menu_name</t>
-  </si>
-  <si>
-    <t>父节点</t>
-  </si>
-  <si>
-    <t>menu_parentId</t>
-  </si>
-  <si>
-    <t>菜单编号父节点</t>
-  </si>
-  <si>
-    <t>排序编号</t>
-  </si>
-  <si>
-    <t>menu_orderId</t>
-  </si>
-  <si>
-    <t>同级菜单排序节点</t>
-  </si>
-  <si>
-    <t>菜单URL</t>
-  </si>
-  <si>
-    <t>menu_url</t>
-  </si>
-  <si>
-    <t>菜单的URL路径</t>
   </si>
   <si>
     <t>menu_created_user</t>
@@ -864,10 +858,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-409]dd/mmm/yy;@"/>
   </numFmts>
   <fonts count="27">
@@ -942,44 +936,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1009,8 +965,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1025,37 +1057,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1065,14 +1066,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1123,7 +1117,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,19 +1189,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,19 +1213,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,7 +1261,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,85 +1285,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1375,6 +1369,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1399,32 +1438,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1448,30 +1466,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1480,10 +1474,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1492,16 +1486,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1510,121 +1504,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
@@ -2492,10 +2486,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
@@ -2558,10 +2552,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>30</v>
@@ -2590,16 +2584,16 @@
         <v>36</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>32</v>
@@ -2608,7 +2602,7 @@
       <c r="H4" s="17"/>
       <c r="I4" s="18"/>
       <c r="J4" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K4" s="21"/>
       <c r="L4" s="17"/>
@@ -2620,10 +2614,10 @@
         <v>40</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>30</v>
@@ -2648,13 +2642,13 @@
         <v>43</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="17" t="s">
@@ -2671,22 +2665,22 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="21"/>
@@ -2766,10 +2760,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
@@ -2832,10 +2826,10 @@
         <v>27</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>30</v>
@@ -2864,16 +2858,16 @@
         <v>36</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>32</v>
@@ -2892,10 +2886,10 @@
         <v>40</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>30</v>
@@ -2920,13 +2914,13 @@
         <v>43</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="17" t="s">
@@ -3026,10 +3020,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -3092,10 +3086,10 @@
         <v>27</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>30</v>
@@ -3124,16 +3118,16 @@
         <v>36</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>32</v>
@@ -3152,10 +3146,10 @@
         <v>40</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>30</v>
@@ -3180,13 +3174,13 @@
         <v>43</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="17" t="s">
@@ -3286,10 +3280,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -3352,10 +3346,10 @@
         <v>27</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>30</v>
@@ -3384,16 +3378,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F37" s="17" t="s">
         <v>32</v>
@@ -3412,10 +3406,10 @@
         <v>40</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>30</v>
@@ -3440,13 +3434,13 @@
         <v>43</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="17" t="s">
@@ -3546,10 +3540,10 @@
         <v>12</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
@@ -3612,10 +3606,10 @@
         <v>27</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>30</v>
@@ -3644,16 +3638,16 @@
         <v>36</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>32</v>
@@ -3672,10 +3666,10 @@
         <v>40</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>30</v>
@@ -3700,13 +3694,13 @@
         <v>43</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E50" s="18"/>
       <c r="F50" s="17" t="s">
@@ -3806,10 +3800,10 @@
         <v>12</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="5"/>
@@ -3872,10 +3866,10 @@
         <v>27</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>30</v>
@@ -3904,16 +3898,16 @@
         <v>36</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F59" s="17" t="s">
         <v>32</v>
@@ -3932,10 +3926,10 @@
         <v>40</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>30</v>
@@ -3960,13 +3954,13 @@
         <v>43</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E61" s="18"/>
       <c r="F61" s="17" t="s">
@@ -4082,10 +4076,10 @@
         <v>12</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="5"/>
@@ -4148,10 +4142,10 @@
         <v>27</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D70" s="17" t="s">
         <v>30</v>
@@ -4180,16 +4174,16 @@
         <v>36</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D71" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F71" s="17" t="s">
         <v>32</v>
@@ -4208,10 +4202,10 @@
         <v>40</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D72" s="17" t="s">
         <v>30</v>
@@ -4236,13 +4230,13 @@
         <v>43</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E73" s="18"/>
       <c r="F73" s="17" t="s">
@@ -4358,10 +4352,10 @@
         <v>12</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="5"/>
@@ -4424,10 +4418,10 @@
         <v>27</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D82" s="17" t="s">
         <v>30</v>
@@ -4456,16 +4450,16 @@
         <v>36</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D83" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F83" s="17" t="s">
         <v>32</v>
@@ -4484,10 +4478,10 @@
         <v>40</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D84" s="17" t="s">
         <v>30</v>
@@ -4512,13 +4506,13 @@
         <v>43</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E85" s="18"/>
       <c r="F85" s="17" t="s">
@@ -4623,10 +4617,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4812,14 +4806,14 @@
       <c r="M5" s="21"/>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" ht="15.75" customHeight="1" spans="1:14">
       <c r="A6" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="33" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="17" t="s">
@@ -4829,75 +4823,59 @@
         <v>31</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="21"/>
       <c r="I6" s="18"/>
       <c r="J6" s="28"/>
-      <c r="K6" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>47</v>
-      </c>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:14">
+    <row r="7" spans="1:14">
       <c r="A7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="C7" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="D7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>31</v>
-      </c>
+      <c r="E7" s="18"/>
       <c r="F7" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="21"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="21"/>
+      <c r="J7" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>52</v>
+      </c>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>55</v>
-      </c>
+      <c r="A8" s="14"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="17" t="s">
-        <v>51</v>
-      </c>
+      <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="21"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>57</v>
-      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
@@ -4905,7 +4883,7 @@
     <row r="9" spans="1:14">
       <c r="A9" s="14"/>
       <c r="B9" s="20"/>
-      <c r="C9" s="16"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="18"/>
       <c r="F9" s="17"/>
@@ -4918,21 +4896,17 @@
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="14"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
+    <row r="10" spans="2:11">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="41"/>
@@ -4947,28 +4921,16 @@
       <c r="K11" s="41"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4982,7 +4944,7 @@
   <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5012,10 +4974,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
@@ -5078,10 +5040,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>30</v>
@@ -5115,10 +5077,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>30</v>
@@ -5145,10 +5107,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>30</v>
@@ -5173,10 +5135,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>30</v>
@@ -5201,10 +5163,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>30</v>
@@ -5221,7 +5183,7 @@
       <c r="J7" s="29"/>
       <c r="K7" s="30"/>
       <c r="L7" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M7" s="21"/>
       <c r="N7" s="17"/>
@@ -5231,16 +5193,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>32</v>
@@ -5251,7 +5213,7 @@
       <c r="J8" s="29"/>
       <c r="K8" s="30"/>
       <c r="L8" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M8" s="21"/>
       <c r="N8" s="17"/>
@@ -5261,16 +5223,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>32</v>
@@ -5279,7 +5241,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="18"/>
       <c r="J9" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K9" s="21"/>
       <c r="L9" s="17"/>
@@ -5291,10 +5253,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>30</v>
@@ -5319,17 +5281,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="17"/>
@@ -5345,13 +5307,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="17" t="s">
@@ -5371,10 +5333,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>30</v>
@@ -5399,13 +5361,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="17" t="s">
@@ -5415,10 +5377,10 @@
       <c r="H14" s="21"/>
       <c r="I14" s="18"/>
       <c r="J14" s="28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
@@ -5429,10 +5391,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>30</v>
@@ -5441,7 +5403,7 @@
         <v>39</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="21"/>
@@ -5457,26 +5419,26 @@
         <v>14</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="21"/>
       <c r="I16" s="18"/>
       <c r="J16" s="28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
@@ -5535,10 +5497,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -5601,10 +5563,10 @@
         <v>27</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>30</v>
@@ -5623,7 +5585,7 @@
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K25" s="21"/>
       <c r="L25" s="17"/>
@@ -5635,19 +5597,19 @@
         <v>36</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G26" s="19" t="s">
         <v>33</v>
@@ -5665,19 +5627,19 @@
         <v>40</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>33</v>
@@ -5695,19 +5657,19 @@
         <v>43</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>33</v>
@@ -5725,10 +5687,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -5791,10 +5753,10 @@
         <v>27</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>30</v>
@@ -5813,7 +5775,7 @@
       </c>
       <c r="I34" s="18"/>
       <c r="J34" s="28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K34" s="21"/>
       <c r="L34" s="17"/>
@@ -5825,16 +5787,16 @@
         <v>36</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F35" s="17" t="s">
         <v>32</v>
@@ -5853,19 +5815,19 @@
         <v>40</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G36" s="19"/>
       <c r="H36" s="17"/>
@@ -6036,10 +5998,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D1" s="32"/>
     </row>
@@ -6090,10 +6052,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>30</v>
@@ -6126,16 +6088,16 @@
         <v>36</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>32</v>
@@ -6154,10 +6116,10 @@
         <v>40</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>30</v>
@@ -6173,7 +6135,7 @@
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
@@ -6184,16 +6146,16 @@
         <v>43</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>32</v>
@@ -6203,7 +6165,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
@@ -6211,19 +6173,19 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>32</v>
@@ -6233,7 +6195,7 @@
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
@@ -6241,13 +6203,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="14" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>30</v>
@@ -6269,16 +6231,16 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="17" t="s">
@@ -6288,10 +6250,10 @@
       <c r="H9" s="21"/>
       <c r="I9" s="18"/>
       <c r="J9" s="28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
@@ -6299,13 +6261,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>30</v>
@@ -6314,7 +6276,7 @@
         <v>31</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="21"/>
@@ -6327,29 +6289,29 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="21"/>
       <c r="I11" s="18"/>
       <c r="J11" s="28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
@@ -6360,10 +6322,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D16" s="32"/>
     </row>
@@ -6414,10 +6376,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>30</v>
@@ -6435,10 +6397,10 @@
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
@@ -6448,10 +6410,10 @@
         <v>36</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>30</v>
@@ -6469,10 +6431,10 @@
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
@@ -6482,10 +6444,10 @@
         <v>40</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>30</v>
@@ -6510,13 +6472,13 @@
         <v>43</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="17" t="s">
@@ -6526,10 +6488,10 @@
       <c r="H21" s="21"/>
       <c r="I21" s="18"/>
       <c r="J21" s="28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
@@ -6537,13 +6499,13 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>30</v>
@@ -6552,7 +6514,7 @@
         <v>31</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="21"/>
@@ -6565,29 +6527,29 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="14" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="21"/>
       <c r="I23" s="18"/>
       <c r="J23" s="28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
@@ -6604,8 +6566,8 @@
   <sheetPr/>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -6623,10 +6585,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D1" s="32"/>
       <c r="E1" s="5"/>
@@ -6689,10 +6651,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>30</v>
@@ -6725,10 +6687,10 @@
         <v>36</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>30</v>
@@ -6753,16 +6715,16 @@
         <v>40</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>32</v>
@@ -6781,10 +6743,10 @@
         <v>43</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>30</v>
@@ -6806,16 +6768,16 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="17" t="s">
@@ -6825,10 +6787,10 @@
       <c r="H7" s="21"/>
       <c r="I7" s="18"/>
       <c r="J7" s="28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
@@ -6836,13 +6798,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="14" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>30</v>
@@ -6851,7 +6813,7 @@
         <v>31</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="21"/>
@@ -6864,29 +6826,29 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="21"/>
       <c r="I9" s="18"/>
       <c r="J9" s="28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
@@ -6922,10 +6884,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
@@ -6988,16 +6950,16 @@
         <v>27</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>157</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>32</v>
@@ -7022,13 +6984,13 @@
         <v>36</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>39</v>
@@ -7050,10 +7012,10 @@
         <v>40</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>30</v>
@@ -7062,7 +7024,7 @@
         <v>31</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="17"/>
@@ -7070,7 +7032,7 @@
       <c r="J5" s="29"/>
       <c r="K5" s="30"/>
       <c r="L5" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M5" s="21"/>
       <c r="N5" s="17"/>
@@ -7080,10 +7042,10 @@
         <v>43</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>30</v>
@@ -7105,16 +7067,16 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="17" t="s">
@@ -7124,10 +7086,10 @@
       <c r="H7" s="21"/>
       <c r="I7" s="18"/>
       <c r="J7" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
@@ -7135,13 +7097,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="14" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>30</v>
@@ -7150,7 +7112,7 @@
         <v>31</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="21"/>
@@ -7163,29 +7125,29 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="21"/>
       <c r="I9" s="18"/>
       <c r="J9" s="28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
@@ -7228,10 +7190,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D16" s="32"/>
     </row>
@@ -7282,10 +7244,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>30</v>
@@ -7303,10 +7265,10 @@
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
@@ -7316,10 +7278,10 @@
         <v>36</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>30</v>
@@ -7337,10 +7299,10 @@
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
@@ -7350,10 +7312,10 @@
         <v>40</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>30</v>
@@ -7378,13 +7340,13 @@
         <v>43</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="17" t="s">
@@ -7394,10 +7356,10 @@
       <c r="H21" s="21"/>
       <c r="I21" s="18"/>
       <c r="J21" s="28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
@@ -7405,13 +7367,13 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>30</v>
@@ -7420,7 +7382,7 @@
         <v>31</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="21"/>
@@ -7433,29 +7395,29 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="14" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="21"/>
       <c r="I23" s="18"/>
       <c r="J23" s="28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
@@ -7492,10 +7454,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D1" s="32"/>
       <c r="E1" s="5"/>
@@ -7558,10 +7520,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>30</v>
@@ -7594,10 +7556,10 @@
         <v>36</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>30</v>
@@ -7624,16 +7586,16 @@
         <v>40</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>32</v>
@@ -7654,10 +7616,10 @@
         <v>43</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>30</v>
@@ -7679,19 +7641,19 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>32</v>
@@ -7707,19 +7669,19 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="14" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>32</v>
@@ -7735,19 +7697,19 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>32</v>
@@ -7763,22 +7725,22 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="21"/>
@@ -7791,13 +7753,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>30</v>
@@ -7819,13 +7781,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>30</v>
@@ -7847,16 +7809,16 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="17" t="s">
@@ -7866,10 +7828,10 @@
       <c r="H13" s="21"/>
       <c r="I13" s="18"/>
       <c r="J13" s="28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
@@ -7877,13 +7839,13 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>30</v>
@@ -7892,7 +7854,7 @@
         <v>31</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="21"/>
@@ -7905,29 +7867,29 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="21"/>
       <c r="I15" s="18"/>
       <c r="J15" s="28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
@@ -7964,10 +7926,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D1" s="32"/>
       <c r="E1" s="5"/>
@@ -8030,10 +7992,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>30</v>
@@ -8066,10 +8028,10 @@
         <v>36</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>30</v>
@@ -8127,7 +8089,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="16"/>
@@ -8145,7 +8107,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="14" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="16"/>
@@ -8163,7 +8125,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="16"/>
@@ -8181,7 +8143,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="33"/>
@@ -8199,7 +8161,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="16"/>

--- a/src/main/webapp/doc/SMS_会议管理系统数据库表_v1.0.xlsx
+++ b/src/main/webapp/doc/SMS_会议管理系统数据库表_v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515" tabRatio="757" activeTab="2"/>
+    <workbookView windowWidth="22943" windowHeight="9515" tabRatio="757" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261">
   <si>
     <t>SMS 数据库历史更新跟踪表</t>
   </si>
@@ -283,6 +283,21 @@
     <t>employee_updated_time</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>工作编号</t>
+  </si>
+  <si>
+    <t>employee_work_id</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>SM_Employee_ContactInfo</t>
   </si>
   <si>
@@ -389,9 +404,6 @@
   </si>
   <si>
     <t>menu_created_user</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
   <si>
     <t>menu_created_time</t>
@@ -858,10 +870,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-409]dd/mmm/yy;@"/>
   </numFmts>
   <fonts count="27">
@@ -937,14 +949,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -957,14 +977,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -972,9 +984,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1004,38 +1046,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1051,7 +1063,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1059,14 +1071,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1117,7 +1129,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,55 +1261,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,37 +1273,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,61 +1297,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,51 +1381,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1438,20 +1405,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1466,6 +1430,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1474,10 +1486,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1486,16 +1498,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1504,121 +1516,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
@@ -2464,7 +2476,7 @@
   <sheetPr/>
   <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -2486,10 +2498,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
@@ -2552,10 +2564,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>30</v>
@@ -2584,10 +2596,10 @@
         <v>36</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>30</v>
@@ -2602,7 +2614,7 @@
       <c r="H4" s="17"/>
       <c r="I4" s="18"/>
       <c r="J4" s="28" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K4" s="21"/>
       <c r="L4" s="17"/>
@@ -2614,10 +2626,10 @@
         <v>40</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>30</v>
@@ -2642,10 +2654,10 @@
         <v>43</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>50</v>
@@ -2668,16 +2680,16 @@
         <v>47</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>46</v>
@@ -2760,10 +2772,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
@@ -2826,10 +2838,10 @@
         <v>27</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>30</v>
@@ -2858,10 +2870,10 @@
         <v>36</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>30</v>
@@ -2886,10 +2898,10 @@
         <v>40</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>30</v>
@@ -2914,10 +2926,10 @@
         <v>43</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>50</v>
@@ -3020,10 +3032,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -3086,10 +3098,10 @@
         <v>27</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>30</v>
@@ -3118,10 +3130,10 @@
         <v>36</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>30</v>
@@ -3146,10 +3158,10 @@
         <v>40</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>30</v>
@@ -3174,10 +3186,10 @@
         <v>43</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>50</v>
@@ -3280,10 +3292,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -3346,10 +3358,10 @@
         <v>27</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>30</v>
@@ -3378,10 +3390,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>30</v>
@@ -3406,10 +3418,10 @@
         <v>40</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>30</v>
@@ -3434,10 +3446,10 @@
         <v>43</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>50</v>
@@ -3540,10 +3552,10 @@
         <v>12</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
@@ -3606,10 +3618,10 @@
         <v>27</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>30</v>
@@ -3638,10 +3650,10 @@
         <v>36</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>30</v>
@@ -3666,10 +3678,10 @@
         <v>40</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>30</v>
@@ -3694,10 +3706,10 @@
         <v>43</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>50</v>
@@ -3800,10 +3812,10 @@
         <v>12</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="5"/>
@@ -3866,10 +3878,10 @@
         <v>27</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>30</v>
@@ -3898,10 +3910,10 @@
         <v>36</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>30</v>
@@ -3926,10 +3938,10 @@
         <v>40</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>30</v>
@@ -3954,10 +3966,10 @@
         <v>43</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D61" s="17" t="s">
         <v>50</v>
@@ -4076,10 +4088,10 @@
         <v>12</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="5"/>
@@ -4142,10 +4154,10 @@
         <v>27</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D70" s="17" t="s">
         <v>30</v>
@@ -4174,10 +4186,10 @@
         <v>36</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D71" s="17" t="s">
         <v>30</v>
@@ -4202,10 +4214,10 @@
         <v>40</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D72" s="17" t="s">
         <v>30</v>
@@ -4230,10 +4242,10 @@
         <v>43</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D73" s="17" t="s">
         <v>50</v>
@@ -4352,10 +4364,10 @@
         <v>12</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="5"/>
@@ -4418,10 +4430,10 @@
         <v>27</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D82" s="17" t="s">
         <v>30</v>
@@ -4450,10 +4462,10 @@
         <v>36</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D83" s="17" t="s">
         <v>30</v>
@@ -4478,10 +4490,10 @@
         <v>40</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D84" s="17" t="s">
         <v>30</v>
@@ -4506,10 +4518,10 @@
         <v>43</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D85" s="17" t="s">
         <v>50</v>
@@ -4619,8 +4631,8 @@
   <sheetPr/>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4767,7 +4779,9 @@
       <c r="F4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="H4" s="17"/>
       <c r="I4" s="18"/>
       <c r="J4" s="29"/>
@@ -4944,7 +4958,7 @@
   <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5445,13 +5459,27 @@
       <c r="N16" s="21"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:14">
-      <c r="A17" s="14"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="A17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>33</v>
+      </c>
       <c r="H17" s="21"/>
       <c r="I17" s="18"/>
       <c r="J17" s="28"/>
@@ -5497,10 +5525,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -5585,7 +5613,7 @@
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="28" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K25" s="21"/>
       <c r="L25" s="17"/>
@@ -5597,16 +5625,16 @@
         <v>36</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>46</v>
@@ -5627,16 +5655,16 @@
         <v>40</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>46</v>
@@ -5657,16 +5685,16 @@
         <v>43</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>46</v>
@@ -5687,10 +5715,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -5775,7 +5803,7 @@
       </c>
       <c r="I34" s="18"/>
       <c r="J34" s="28" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K34" s="21"/>
       <c r="L34" s="17"/>
@@ -5787,16 +5815,16 @@
         <v>36</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F35" s="17" t="s">
         <v>32</v>
@@ -5815,16 +5843,16 @@
         <v>40</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F36" s="17" t="s">
         <v>46</v>
@@ -5976,7 +6004,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5998,10 +6026,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D1" s="32"/>
     </row>
@@ -6052,10 +6080,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>30</v>
@@ -6088,21 +6116,23 @@
         <v>36</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -6116,10 +6146,10 @@
         <v>40</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>30</v>
@@ -6135,7 +6165,7 @@
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
@@ -6146,16 +6176,16 @@
         <v>43</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>32</v>
@@ -6165,7 +6195,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
@@ -6176,16 +6206,16 @@
         <v>47</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>32</v>
@@ -6195,7 +6225,7 @@
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
@@ -6203,13 +6233,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="14" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>80</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>30</v>
@@ -6231,13 +6261,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="14" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>82</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>50</v>
@@ -6261,13 +6291,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>30</v>
@@ -6289,13 +6319,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="14" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>50</v>
@@ -6322,10 +6352,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D16" s="32"/>
     </row>
@@ -6376,10 +6406,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>30</v>
@@ -6397,10 +6427,10 @@
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
@@ -6410,10 +6440,10 @@
         <v>36</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>30</v>
@@ -6431,10 +6461,10 @@
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
@@ -6447,7 +6477,7 @@
         <v>80</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>30</v>
@@ -6475,7 +6505,7 @@
         <v>82</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>50</v>
@@ -6505,7 +6535,7 @@
         <v>44</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>30</v>
@@ -6527,13 +6557,13 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="14" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>50</v>
@@ -6567,7 +6597,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -6585,10 +6615,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D1" s="32"/>
       <c r="E1" s="5"/>
@@ -6651,10 +6681,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>30</v>
@@ -6687,10 +6717,10 @@
         <v>36</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>30</v>
@@ -6701,7 +6731,9 @@
       <c r="F4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="H4" s="17"/>
       <c r="I4" s="18"/>
       <c r="J4" s="28"/>
@@ -6715,16 +6747,16 @@
         <v>40</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>32</v>
@@ -6746,7 +6778,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>30</v>
@@ -6774,7 +6806,7 @@
         <v>82</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>50</v>
@@ -6798,13 +6830,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="14" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>30</v>
@@ -6826,13 +6858,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="14" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>50</v>
@@ -6866,7 +6898,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -6887,7 +6919,7 @@
         <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
@@ -6953,13 +6985,13 @@
         <v>63</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>32</v>
@@ -6984,13 +7016,13 @@
         <v>36</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>39</v>
@@ -6998,7 +7030,9 @@
       <c r="F4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="H4" s="17"/>
       <c r="I4" s="18"/>
       <c r="J4" s="29"/>
@@ -7012,10 +7046,10 @@
         <v>40</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>30</v>
@@ -7032,7 +7066,7 @@
       <c r="J5" s="29"/>
       <c r="K5" s="30"/>
       <c r="L5" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M5" s="21"/>
       <c r="N5" s="17"/>
@@ -7045,7 +7079,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>30</v>
@@ -7073,7 +7107,7 @@
         <v>82</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>50</v>
@@ -7086,7 +7120,7 @@
       <c r="H7" s="21"/>
       <c r="I7" s="18"/>
       <c r="J7" s="28" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K7" s="21" t="s">
         <v>52</v>
@@ -7097,13 +7131,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="14" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>30</v>
@@ -7125,13 +7159,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="14" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>50</v>
@@ -7190,10 +7224,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D16" s="32"/>
     </row>
@@ -7247,7 +7281,7 @@
         <v>63</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>30</v>
@@ -7265,10 +7299,10 @@
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
@@ -7278,10 +7312,10 @@
         <v>36</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>30</v>
@@ -7299,10 +7333,10 @@
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
@@ -7315,7 +7349,7 @@
         <v>80</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>30</v>
@@ -7343,7 +7377,7 @@
         <v>82</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>50</v>
@@ -7373,7 +7407,7 @@
         <v>44</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>30</v>
@@ -7395,13 +7429,13 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="14" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>50</v>
@@ -7454,7 +7488,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>68</v>
@@ -7556,10 +7590,10 @@
         <v>36</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>30</v>
@@ -7586,10 +7620,10 @@
         <v>40</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>30</v>
@@ -7616,10 +7650,10 @@
         <v>43</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>30</v>
@@ -7644,16 +7678,16 @@
         <v>47</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>32</v>
@@ -7669,19 +7703,19 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="14" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>32</v>
@@ -7697,19 +7731,19 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="14" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>32</v>
@@ -7725,19 +7759,19 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>46</v>
@@ -7753,13 +7787,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="14" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>30</v>
@@ -7787,7 +7821,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>30</v>
@@ -7809,13 +7843,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="14" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>82</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>50</v>
@@ -7839,13 +7873,13 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="14" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>30</v>
@@ -7867,13 +7901,13 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="14" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>50</v>
@@ -7926,10 +7960,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D1" s="32"/>
       <c r="E1" s="5"/>
@@ -7992,10 +8026,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>30</v>
@@ -8028,10 +8062,10 @@
         <v>36</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>30</v>
@@ -8107,7 +8141,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="14" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="16"/>
@@ -8125,7 +8159,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="14" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="16"/>
@@ -8143,7 +8177,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="33"/>
@@ -8161,7 +8195,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="14" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="16"/>
